--- a/docs/odh/obf-EpisodeOfCare.xlsx
+++ b/docs/odh/obf-EpisodeOfCare.xlsx
@@ -579,7 +579,7 @@
     <t>EpisodeOfCare.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -598,7 +598,7 @@
     <t>EpisodeOfCare.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -645,7 +645,7 @@
     <t>EpisodeOfCare.careManager</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner)
 </t>
   </si>
   <si>
